--- a/integration v2.xlsx
+++ b/integration v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB76BD3-67FF-8E4F-808A-ADCC0C7D18E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="integration v2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -403,17 +402,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +422,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,6 +481,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,49 +818,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDF3C4-A0B2-214E-9544-F58E979CFADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="215.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,11 +890,11 @@
       <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="255.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -880,21 +914,21 @@
       <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="323.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="370.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -916,11 +950,11 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="363" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -940,11 +974,11 @@
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="108" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -964,21 +998,21 @@
       <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1000,11 +1034,11 @@
       <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1024,21 +1058,21 @@
       <c r="G10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1064,7 +1098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1084,21 +1118,21 @@
       <c r="G13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1124,7 +1158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -1144,21 +1178,21 @@
       <c r="G16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1184,7 +1218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1207,16 +1241,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="108" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1236,9 +1270,11 @@
         <v>87</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="121.5" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1256,19 +1292,21 @@
         <v>92</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="121.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -1294,7 +1332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
